--- a/global_data/day_data/603658.xlsx
+++ b/global_data/day_data/603658.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61308,6 +61310,64 @@
         <v>0.003028045154668549</v>
       </c>
     </row>
+    <row r="2101" spans="1:9">
+      <c r="A2101" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B2101">
+        <v>39</v>
+      </c>
+      <c r="C2101">
+        <v>39</v>
+      </c>
+      <c r="D2101">
+        <v>38.48</v>
+      </c>
+      <c r="E2101">
+        <v>38.56</v>
+      </c>
+      <c r="F2101">
+        <v>1974000</v>
+      </c>
+      <c r="G2101">
+        <v>76393304</v>
+      </c>
+      <c r="H2101">
+        <v>571424768</v>
+      </c>
+      <c r="I2101">
+        <v>0.003454522993305043</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:9">
+      <c r="A2102" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B2102">
+        <v>38.57</v>
+      </c>
+      <c r="C2102">
+        <v>38.86</v>
+      </c>
+      <c r="D2102">
+        <v>38.44</v>
+      </c>
+      <c r="E2102">
+        <v>38.51</v>
+      </c>
+      <c r="F2102">
+        <v>2186549</v>
+      </c>
+      <c r="G2102">
+        <v>84385901</v>
+      </c>
+      <c r="H2102">
+        <v>571424768</v>
+      </c>
+      <c r="I2102">
+        <v>0.003826486219092274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
